--- a/yield_prediction/results/graph_descriptors/WLlinear_6/out_of_sample/additive/plate_1/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLlinear_6/out_of_sample/additive/plate_1/results.xlsx
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.639</v>
+        <v>0.641</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14.994</v>
+        <v>14.946</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.643</v>
+        <v>0.632</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.808</v>
+        <v>18.086</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.974</v>
+        <v>0.981</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.176</v>
+        <v>3.501</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>15.91657871853008</v>
+        <v>15.67246092966178</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>18.32269425801911</v>
+        <v>17.85698225619302</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>31.11777142110136</v>
+        <v>30.39489260724909</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1.27760752419309</v>
+        <v>1.708634585551891</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>21.51658654506517</v>
+        <v>22.17784855991957</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>26.14929062904348</v>
+        <v>25.38586251924069</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>8.80309364486985</v>
+        <v>8.202427338454743</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>34.70475015957194</v>
+        <v>35.39083562956698</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>41.32044153996205</v>
+        <v>40.91092754770301</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>19.70836596527277</v>
+        <v>18.51289971674286</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>23.69836190175558</v>
+        <v>23.27889682705957</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>23.58733817464745</v>
+        <v>22.90384034850163</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>12.9164957414785</v>
+        <v>13.55465140334873</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>15.06873303695616</v>
+        <v>14.98498400272344</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>34.93448109115625</v>
+        <v>35.16070893199898</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>13.19653337418424</v>
+        <v>12.92983897293606</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>25.0545603151602</v>
+        <v>24.52183533334292</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>32.5962329585526</v>
+        <v>32.56129732420337</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>2.526307050004188</v>
+        <v>3.291779521000585</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>10.21409158952758</v>
+        <v>10.86691294681501</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>14.43814032910145</v>
+        <v>15.09051103071084</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>2.537783040040456</v>
+        <v>2.619824800762029</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>16.80490016976811</v>
+        <v>16.98187119675285</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>19.28900526507813</v>
+        <v>19.83330613040024</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>27.81362593446146</v>
+        <v>27.07094108701858</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>30.33832300105596</v>
+        <v>28.9278002308273</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.9960387915810607</v>
+        <v>1.170437473789562</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>33.99379439412625</v>
+        <v>33.55235414464843</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>34.29769387085546</v>
+        <v>32.92399526845835</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>7.141588693222342</v>
+        <v>7.119548641121447</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>47.52239693654596</v>
+        <v>46.73954986637175</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>48.26068958980942</v>
+        <v>47.1861042381714</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>47.79530411960179</v>
+        <v>46.7775934077846</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>51.72356333956549</v>
+        <v>51.02445050913143</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>51.63240628597193</v>
+        <v>50.94799426849113</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>22.84119399208105</v>
+        <v>23.93170836778346</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>42.90856617972088</v>
+        <v>44.03126721480346</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>54.03196275479974</v>
+        <v>54.27483941551968</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>17.70044525924423</v>
+        <v>18.72315344074809</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>33.07473304563111</v>
+        <v>32.39276336141501</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>35.21908517405912</v>
+        <v>34.60781853254043</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>3.820883277110664</v>
+        <v>4.279726228292628</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>29.53477815228363</v>
+        <v>29.52805822462715</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>34.12365637200607</v>
+        <v>34.43979109549641</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>3.475369038443649</v>
+        <v>3.371701605568944</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>45.41321819403483</v>
+        <v>45.03980803275518</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>9.782765563162144</v>
+        <v>9.017582079931724</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>22.73412953951921</v>
+        <v>22.10405401260536</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>27.88219278033636</v>
+        <v>28.46121120777397</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>0.1236947132270032</v>
+        <v>0.6011691548623155</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>33.08909700704906</v>
+        <v>33.66080898638232</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>36.63915205835673</v>
+        <v>36.85341127484621</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>7.137317602980016</v>
+        <v>7.795593627019034</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>49.39318846782129</v>
+        <v>49.64368934422131</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>52.70127382799106</v>
+        <v>52.75820222666356</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>51.59481133450428</v>
+        <v>52.66273168866177</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>52.71201185136252</v>
+        <v>53.77071705864167</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>55.61241879424369</v>
+        <v>56.51937125812432</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>11.81626714429826</v>
+        <v>11.11535253731105</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>34.54758906525616</v>
+        <v>34.12066822553925</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>48.06805977953351</v>
+        <v>48.29490489846894</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>10.57197866961507</v>
+        <v>11.3720637516533</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>30.09665480873642</v>
+        <v>30.00825258118326</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>33.53400074829178</v>
+        <v>33.51000468064871</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>2.807153008211341</v>
+        <v>3.487189368453325</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>25.17994509385662</v>
+        <v>25.14101777302879</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>37.5589727512692</v>
+        <v>38.2146543488367</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>4.990144642887433</v>
+        <v>5.124294956895415</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>44.07051380159054</v>
+        <v>43.41042607883904</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>4.65872255273489</v>
+        <v>5.19355341789019</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>15.04500398894681</v>
+        <v>15.04057563475566</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>23.38472503152813</v>
+        <v>23.65430706005408</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>0.3863045544761299</v>
+        <v>0.3901898682452263</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>29.82923363126636</v>
+        <v>29.90539192793593</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>37.15965163841161</v>
+        <v>37.29588509226052</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>1.367218517169668</v>
+        <v>1.645337345767896</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>44.57519333129098</v>
+        <v>44.44084655600098</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>50.86270981824329</v>
+        <v>50.6653562721945</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>38.23810819660157</v>
+        <v>39.41757750399839</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>41.714212703153</v>
+        <v>43.16721390184463</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>43.3576186780566</v>
+        <v>45.0761667354375</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>5.016220853152198</v>
+        <v>5.341757266404439</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>27.62830119187282</v>
+        <v>26.54754224262175</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>46.42026192371677</v>
+        <v>46.87980165490748</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>6.863161483475213</v>
+        <v>7.020317193984514</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>26.87249618836681</v>
+        <v>26.14407760647332</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>34.8644894125092</v>
+        <v>34.13435500405358</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>3.39886763680224</v>
+        <v>4.153286330276021</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>24.41140335009658</v>
+        <v>24.40028632388115</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>37.98194194739742</v>
+        <v>38.00308273837835</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>1.842392433308678</v>
+        <v>1.904167014842663</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>37.63586770465032</v>
+        <v>37.00936385274267</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>22.94756167427331</v>
+        <v>21.93814141609321</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>17.57853120072433</v>
+        <v>17.80752108896111</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>31.19849971358271</v>
+        <v>31.64028048556609</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>35.91070492877376</v>
+        <v>36.02602560821538</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>4.78821602989721</v>
+        <v>5.220069055999073</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>13.14817108818691</v>
+        <v>13.21544428774824</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>20.76569114812669</v>
+        <v>20.16790454778514</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>10.28052887630421</v>
+        <v>10.36743650069769</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>20.19679291413766</v>
+        <v>20.20494830592943</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>33.32173005458499</v>
+        <v>32.91466808472477</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>2.315853534692284</v>
+        <v>3.361687360101865</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>8.713975504814243</v>
+        <v>9.348523939903917</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>14.07610413744043</v>
+        <v>13.57140016176297</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>1.754461037279636</v>
+        <v>2.582686542127743</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>17.53520008098114</v>
+        <v>17.09862127829133</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>35.47698960495374</v>
+        <v>36.0304748454742</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>21.5431067045154</v>
+        <v>20.33978586374998</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>42.07686053975416</v>
+        <v>41.77035442114432</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>48.34310251498221</v>
+        <v>47.62298743957806</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>4.085532244931418</v>
+        <v>4.198512483078893</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>16.60444506455067</v>
+        <v>16.64618518565246</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>26.98315575709212</v>
+        <v>26.81922478950394</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>54.13640996361601</v>
+        <v>54.51180675532652</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>52.37029573566483</v>
+        <v>52.48358696214846</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>60.72507448299946</v>
+        <v>60.18620644993615</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>60.6891273332805</v>
+        <v>60.27479210038167</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>20.30308905111496</v>
+        <v>20.21629127043216</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>55.11863546899276</v>
+        <v>55.06043463956834</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>59.15777976145428</v>
+        <v>58.05198172468157</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>21.27899098533413</v>
+        <v>23.52006681111447</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>36.62753228862412</v>
+        <v>35.96063050732255</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>43.02184704739599</v>
+        <v>42.9101452604217</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>4.822703119728747</v>
+        <v>5.765756045420179</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>40.8807282625522</v>
+        <v>40.59887495943084</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>43.82079104163989</v>
+        <v>43.88422631981004</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>6.370369345785914</v>
+        <v>6.270535910182883</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>61.60244846444213</v>
+        <v>61.22663999541503</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>66.13209233165598</v>
+        <v>66.61371762374749</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>77.46839309798484</v>
+        <v>76.71601404467145</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>81.44797211185634</v>
+        <v>80.17824871415363</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>84.12918778142119</v>
+        <v>84.02739947789566</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>31.32839318631243</v>
+        <v>31.79582721875196</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>72.68572252731047</v>
+        <v>72.25548610804282</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>76.84233885820036</v>
+        <v>76.32022310059777</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>58.60539720544919</v>
+        <v>58.49545823377893</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>44.8742037220571</v>
+        <v>43.43570853490642</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>51.21536644409615</v>
+        <v>50.57975270641001</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>58.93609132176324</v>
+        <v>58.88127262233711</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>9.817789759373365</v>
+        <v>9.861692318970075</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>50.00356958810106</v>
+        <v>49.80610974638878</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>57.67098137466419</v>
+        <v>56.96768201217895</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>13.37818493119435</v>
+        <v>13.65554893140581</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>34.24056322418091</v>
+        <v>33.98757182861897</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>42.30201044606474</v>
+        <v>42.07795269391618</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>3.198590481576705</v>
+        <v>3.788138790509347</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>37.73366596925312</v>
+        <v>37.94907471618892</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>46.7816681768611</v>
+        <v>47.05437329620014</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>6.85982396884906</v>
+        <v>7.010873532659751</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>61.56140214161734</v>
+        <v>60.49879774539856</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>71.35375507107666</v>
+        <v>71.97250013423738</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>77.14353045414049</v>
+        <v>75.3966697795238</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>78.89870215645168</v>
+        <v>78.07293053407204</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>87.42831619550611</v>
+        <v>87.22150997594737</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>14.58413873553651</v>
+        <v>13.05947363590776</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>67.67553997597875</v>
+        <v>66.8806629745027</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>80.01135190970872</v>
+        <v>79.93601230615454</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>57.12487843712259</v>
+        <v>56.23202556479016</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>25.76357788735654</v>
+        <v>25.25802304120553</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>33.39353691287701</v>
+        <v>32.99120770385944</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>44.80299339611494</v>
+        <v>44.95796854257047</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>5.754026021817221</v>
+        <v>6.308049612607078</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>46.82828854812685</v>
+        <v>45.93534733031876</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>57.43426852235483</v>
+        <v>56.1729582924645</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>8.65398741338123</v>
+        <v>9.001785006763111</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>32.48589361926743</v>
+        <v>32.27520609041699</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>45.08324012931878</v>
+        <v>44.9462606116937</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>3.55681337921661</v>
+        <v>4.594074224939593</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>34.08107293890826</v>
+        <v>34.23837713195199</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>48.74386946363624</v>
+        <v>48.81987353061895</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>2.077458014438555</v>
+        <v>1.508906921249025</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>52.1289906582081</v>
+        <v>51.30821348843071</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>71.44796949513403</v>
+        <v>71.38186578287507</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>59.77569399955506</v>
+        <v>58.62013051754799</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>69.50964573733494</v>
+        <v>68.05259844613046</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>87.16404142471994</v>
+        <v>86.82550212108242</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>6.537885864109452</v>
+        <v>7.022972895251282</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>56.66882362394487</v>
+        <v>55.31577375976873</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>76.89112060009269</v>
+        <v>76.53611448161475</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>13.86073767597011</v>
+        <v>14.11805214797526</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>17.90708032275642</v>
+        <v>17.30511616298995</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>30.0774878776146</v>
+        <v>29.01933860252223</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>1.259209391979947</v>
+        <v>1.421796766879194</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>21.91256065488444</v>
+        <v>21.05137869765583</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>25.62216575303872</v>
+        <v>24.05603926494928</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>7.097391588386259</v>
+        <v>6.991457531798844</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>39.81784817993029</v>
+        <v>38.64058650431562</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>44.33725739414314</v>
+        <v>42.62412172865495</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>25.87324139645297</v>
+        <v>22.75363220320955</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>33.32494129954531</v>
+        <v>30.9570174295123</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>33.37219847527039</v>
+        <v>31.1963069664404</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>17.27587662664826</v>
+        <v>16.82978830667056</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>18.91368921412518</v>
+        <v>18.12901598743544</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>41.05741020554332</v>
+        <v>39.03138071036652</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>12.03595970902425</v>
+        <v>11.41878473862527</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>25.32492199226635</v>
+        <v>24.60577232119638</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>30.27484381406479</v>
+        <v>29.51602531343877</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>-1.935310740464402</v>
+        <v>-1.350557897443867</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>10.34990555426709</v>
+        <v>9.472795960880131</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>14.46461216084173</v>
+        <v>13.32947977086238</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>0.6928146835194546</v>
+        <v>0.7755291683451979</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>26.65353263884884</v>
+        <v>25.37578769847076</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>16.42474035206852</v>
+        <v>16.67614685058948</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>23.74854046571068</v>
+        <v>23.78049109464606</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>30.0350608649976</v>
+        <v>28.94760992973845</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>1.473423761578317</v>
+        <v>1.622749474462015</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>33.23816549565679</v>
+        <v>31.92536402625608</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>33.52157218851086</v>
+        <v>32.48698582792897</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>7.325080038668485</v>
+        <v>7.204523637984128</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>48.81556737144235</v>
+        <v>47.388311539573</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>50.33124943230974</v>
+        <v>48.59948090885966</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>48.78883972488258</v>
+        <v>46.69618045798261</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>54.36022294018588</v>
+        <v>52.6991133939739</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>54.31394883579127</v>
+        <v>52.50806309572934</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>22.32116322116703</v>
+        <v>22.16933924483114</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>42.56017505407142</v>
+        <v>43.56242972724371</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>52.65746228382464</v>
+        <v>51.5764111659815</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>16.93783540949043</v>
+        <v>17.61127699034528</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>31.90877378292092</v>
+        <v>31.06450517039648</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>34.67266327715077</v>
+        <v>34.10533447068651</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>-0.04658142505392604</v>
+        <v>0.2227552224138627</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>31.84512223322305</v>
+        <v>30.96465446911463</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>34.04552919567238</v>
+        <v>32.49883793795907</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>2.297782559109667</v>
+        <v>2.480369232351435</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>50.21663980130457</v>
+        <v>49.07024649041045</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>5.590744581898715</v>
+        <v>5.536835920375832</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>17.4785585452676</v>
+        <v>17.39702889554305</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>26.46286098208819</v>
+        <v>26.16710942550662</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>-0.1504473052396129</v>
+        <v>-0.04634349789127867</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>31.0057503375042</v>
+        <v>29.73106069786781</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>33.70167206285681</v>
+        <v>32.4359734203438</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>6.862902921209457</v>
+        <v>6.63000359462362</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>47.63378446833026</v>
+        <v>46.21434688773789</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>53.26870831779996</v>
+        <v>51.35571332187368</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>52.58870183813345</v>
+        <v>50.80582565855198</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>55.16172043204499</v>
+        <v>53.06001547258609</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>60.30700314113048</v>
+        <v>59.47398522773783</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>10.63625253114015</v>
+        <v>8.047825839978731</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>33.5328607405055</v>
+        <v>32.34098927788784</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>44.32334061174825</v>
+        <v>41.27514537373754</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>8.32363422554069</v>
+        <v>8.047381485629256</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>28.55460783581394</v>
+        <v>28.45831901263677</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>32.59543113271821</v>
+        <v>32.13599958308841</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>-1.273145857989363</v>
+        <v>-0.7135638751733104</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>26.09124074506543</v>
+        <v>25.17154216276253</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>35.48035006556962</v>
+        <v>34.56215487828891</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>3.200995854633742</v>
+        <v>3.413850496784534</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>45.57374164966616</v>
+        <v>44.38089082462173</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>2.716320911005266</v>
+        <v>2.998595115104305</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>13.14411783271808</v>
+        <v>13.010515160754</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>25.36046898007297</v>
+        <v>24.61055183672978</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>-0.2878879456710379</v>
+        <v>-0.04563946758930726</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>29.81061380366638</v>
+        <v>28.68083917625389</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>36.02730992711255</v>
+        <v>34.82570485479323</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>1.060077637672737</v>
+        <v>1.103570300517152</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>43.55957659055534</v>
+        <v>42.21780172203056</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>52.46320274798641</v>
+        <v>50.56029784200121</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>44.50921456420413</v>
+        <v>43.44246581856282</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>50.40871075228917</v>
+        <v>49.42916388683807</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>54.60022403419221</v>
+        <v>54.82240978282849</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>6.986421095716384</v>
+        <v>5.362352333346941</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>29.47965551167542</v>
+        <v>28.20510648240478</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>47.64891460408798</v>
+        <v>45.43236665975871</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>5.576263477313461</v>
+        <v>5.275781420508356</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>25.0430186303991</v>
+        <v>24.35380406879782</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>31.42802618041154</v>
+        <v>30.66154514272834</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>-1.884735399353115</v>
+        <v>-1.276337930250254</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>22.71644366627579</v>
+        <v>21.91718965527286</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>31.50841564672811</v>
+        <v>30.85332830650102</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>-0.44114015483866</v>
+        <v>-0.09548988483441789</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>36.99277433921677</v>
+        <v>35.77634730094591</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>29.33862562737793</v>
+        <v>27.35345094611499</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>21.82396702562693</v>
+        <v>20.52436413819429</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>38.08211688448083</v>
+        <v>37.08767407268955</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>37.83737604761791</v>
+        <v>37.39013414832262</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>8.359119425565606</v>
+        <v>7.880745222323938</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>18.27008792560351</v>
+        <v>18.03218401922459</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>27.52084710597227</v>
+        <v>26.52055948250371</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>11.72131058523004</v>
+        <v>11.85998760345709</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>24.37660759786838</v>
+        <v>24.1335384922773</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>37.02376642736992</v>
+        <v>36.1204599609483</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>-1.668073544758105</v>
+        <v>-0.9621720235541638</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>9.842091057181985</v>
+        <v>8.888121069989193</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>17.7252137844463</v>
+        <v>16.90516069967248</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>0.8509596463126812</v>
+        <v>1.440807081242969</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>27.47599261870167</v>
+        <v>25.99937240424006</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>45.82947043176721</v>
+        <v>45.61300877899563</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>26.00409174247598</v>
+        <v>24.51897221586631</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>45.51938314064314</v>
+        <v>44.74501457525267</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>53.23808080621498</v>
+        <v>52.09953701533588</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>6.770381219400782</v>
+        <v>6.977872063202895</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>24.78240731501833</v>
+        <v>24.00029394297469</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>38.51993488188232</v>
+        <v>37.17451998849451</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>55.73827431074618</v>
+        <v>54.97940805892975</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>52.58478841224654</v>
+        <v>51.70368973688201</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>60.32091400954393</v>
+        <v>58.98591315354122</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>58.16959343757394</v>
+        <v>56.85744923218297</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>20.38593481689898</v>
+        <v>20.05810971695188</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>55.54744986122834</v>
+        <v>54.51386495684038</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>58.44426810297507</v>
+        <v>57.42462159141637</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>20.9595796191647</v>
+        <v>22.36758904233289</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>36.61486518039352</v>
+        <v>35.63411082912378</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>43.60074893432812</v>
+        <v>43.12619995126445</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>0.9170420552063696</v>
+        <v>1.091728953969156</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>42.12562659519848</v>
+        <v>41.55294152965634</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>43.74695073938159</v>
+        <v>43.3650681870198</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>5.248647468371495</v>
+        <v>5.221954719571176</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>63.70872172544387</v>
+        <v>63.53203008434618</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>68.02020876945993</v>
+        <v>67.58632098229026</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>73.64750461430786</v>
+        <v>72.94485336722661</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>77.83325795680848</v>
+        <v>76.93900879289916</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>81.51980833837594</v>
+        <v>80.58084536199539</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>28.83627245244215</v>
+        <v>30.12919415960741</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>75.51932814870044</v>
+        <v>73.66765565693541</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>77.08815644227259</v>
+        <v>75.87840417322212</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>57.83542405406433</v>
+        <v>56.42784019832676</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>46.33941290688351</v>
+        <v>45.2087865123423</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>50.68640024532132</v>
+        <v>49.36445117239703</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>57.40269951426922</v>
+        <v>56.73362936869337</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>8.899597849936352</v>
+        <v>8.09577298831795</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>48.81898375030904</v>
+        <v>47.69798659130323</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>55.43069814558476</v>
+        <v>54.33002471851206</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>11.01498542952033</v>
+        <v>11.09625066522094</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>33.29831146317373</v>
+        <v>33.1168761772765</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>42.09927490861111</v>
+        <v>41.7154732111029</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>-1.11864844924045</v>
+        <v>-0.7637212228583294</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>37.60440873240934</v>
+        <v>36.59048283991476</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>44.50902698537564</v>
+        <v>44.13135447245762</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>5.087520704053606</v>
+        <v>5.658304146375752</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>61.23756551360653</v>
+        <v>60.36739265493728</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>71.63467574896021</v>
+        <v>71.21246299891872</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>71.62495122152171</v>
+        <v>70.40885897256722</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>76.6527095713073</v>
+        <v>75.43943796247198</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>85.47561987743097</v>
+        <v>85.10749514123579</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>11.78188798932904</v>
+        <v>11.29256021530122</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>71.44997980032564</v>
+        <v>69.90491942963277</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>78.41977271160256</v>
+        <v>77.00209476269632</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>52.19454658885623</v>
+        <v>50.91844807991514</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>27.04797308514846</v>
+        <v>26.21662931109512</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>34.18823834521595</v>
+        <v>33.11336103136452</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>40.18154549971675</v>
+        <v>39.5609047281475</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>5.768779333601803</v>
+        <v>5.753697872818872</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>41.49448368437658</v>
+        <v>40.91113635533686</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>49.88943629918209</v>
+        <v>49.26585496289005</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>7.258559793330882</v>
+        <v>7.189793119860507</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>32.06212267430875</v>
+        <v>31.36482874248587</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>44.28686175627018</v>
+        <v>43.62190089387677</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>-0.8339675709542753</v>
+        <v>-0.5087065457123749</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>35.63990856835017</v>
+        <v>34.56760760110515</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>45.10473245032478</v>
+        <v>44.64842633346382</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>1.044871954002687</v>
+        <v>1.139339940576967</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>55.8614794791002</v>
+        <v>55.10173945357755</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>71.54097204997599</v>
+        <v>70.45569564481882</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>59.7628595213388</v>
+        <v>58.66740627182797</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>72.89055033515288</v>
+        <v>71.20548553016519</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>85.01233184056703</v>
+        <v>83.45443696941527</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>7.450393073411693</v>
+        <v>7.21856350106405</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>65.08371094891231</v>
+        <v>64.06067582515263</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>79.03371457868072</v>
+        <v>77.40831597394948</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>8.012089798963817</v>
+        <v>9.007708366952141</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>10.14303976958388</v>
+        <v>10.67941973721171</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>20.65338562364234</v>
+        <v>21.05997551280305</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>-0.3788809330487659</v>
+        <v>0.3487183840188699</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>11.53569056588065</v>
+        <v>12.32282639313445</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>14.43970200407941</v>
+        <v>14.48248329370622</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>3.946233333101937</v>
+        <v>4.382471690749053</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>25.5517338368748</v>
+        <v>25.73999862791717</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>29.38728589055794</v>
+        <v>29.28536488163152</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>15.01972730773616</v>
+        <v>13.58369909965546</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>22.49790918469665</v>
+        <v>21.88612216194295</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>23.29941139023123</v>
+        <v>22.47547689620861</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>11.09148721357475</v>
+        <v>11.79634443981532</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>9.41875970462657</v>
+        <v>10.50832139854899</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>26.25352329631775</v>
+        <v>26.41959739995201</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>12.25039177182101</v>
+        <v>11.76822437987801</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>25.97830435812736</v>
+        <v>25.19420907409644</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>30.74817701621909</v>
+        <v>29.88156829036759</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>-1.922499246404549</v>
+        <v>-1.335624738858229</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>10.34701836902626</v>
+        <v>9.157084170449401</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>15.37984782780252</v>
+        <v>14.44270432688964</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>0.7638945259542318</v>
+        <v>1.067888956939122</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>28.45152534863384</v>
+        <v>27.05334135777566</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>10.99094928553008</v>
+        <v>11.6660201649153</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>16.34129070644013</v>
+        <v>17.36647781515061</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>21.37037539097914</v>
+        <v>21.48847342842803</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>-0.0681595244066564</v>
+        <v>0.2109302991338247</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>24.24728344631403</v>
+        <v>24.14241130435251</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>24.58809477241552</v>
+        <v>25.19370679553198</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>4.2918060662487</v>
+        <v>4.30986841593408</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>36.32938121214853</v>
+        <v>36.3867122295256</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>37.06100513604076</v>
+        <v>36.88532855473136</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>36.72144359481292</v>
+        <v>35.85486826632692</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>43.04436668250008</v>
+        <v>42.97115206460403</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>44.05768421826846</v>
+        <v>43.3367470650556</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>15.20145840555555</v>
+        <v>15.8626026517309</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>31.15215303881734</v>
+        <v>33.30610092439242</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>37.9529922037123</v>
+        <v>38.76016613536593</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>17.3039951894201</v>
+        <v>17.67053560049257</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>32.94479247049102</v>
+        <v>31.83934041469209</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>35.29337954748817</v>
+        <v>34.47924212217492</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>-0.493786889461326</v>
+        <v>-0.2440209670921085</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>33.32000904103339</v>
+        <v>32.17500635570627</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>36.08354955191857</v>
+        <v>34.79893499314299</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>1.759228308963944</v>
+        <v>1.997198663901262</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>52.95806921655891</v>
+        <v>51.34169077577563</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>2.878016514980803</v>
+        <v>3.427873287455665</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>11.76729812428194</v>
+        <v>12.36037250551295</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>19.64320757988928</v>
+        <v>20.70888565111147</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>-0.9162417893817683</v>
+        <v>-0.5925737418450829</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>22.2740673017994</v>
+        <v>22.30322673921618</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>24.35239799390211</v>
+        <v>24.44399707655447</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>5.945468143081669</v>
+        <v>6.096140348258597</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>37.18437482992403</v>
+        <v>37.57900368693049</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>41.46458589828512</v>
+        <v>41.14538713902596</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>41.73351157437614</v>
+        <v>40.82813871717234</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>44.60133374811235</v>
+        <v>43.26062822272883</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>51.01462460893966</v>
+        <v>51.24677701183064</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>6.598755016956101</v>
+        <v>5.793240952485188</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>23.7115156495076</v>
+        <v>23.68745423131072</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>31.38749828066522</v>
+        <v>30.55334517414012</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>10.52441930777526</v>
+        <v>10.04146849466271</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>31.49217844028291</v>
+        <v>30.61035467642007</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>34.57769297637186</v>
+        <v>33.60264695714234</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>-0.8872469565820005</v>
+        <v>-0.45620263992679</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>29.14181158068834</v>
+        <v>27.96301742633088</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>37.16863999504442</v>
+        <v>35.63228618432131</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>4.617959354189292</v>
+        <v>4.640356117633139</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>50.89483565259039</v>
+        <v>49.45092006826657</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>0.5489896639355187</v>
+        <v>1.122868906653281</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>7.515903150687084</v>
+        <v>7.96228483553789</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>19.20344723241847</v>
+        <v>19.64210360099806</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>-1.083197040938877</v>
+        <v>-0.7104218828586149</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>19.43243199074111</v>
+        <v>19.40368622818416</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>26.71897709932442</v>
+        <v>26.85942749663702</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>-0.1983377750996205</v>
+        <v>0.02486283985426851</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>30.68237865099785</v>
+        <v>30.39026827888406</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>40.00352357292662</v>
+        <v>39.67398621644091</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>33.57601789103914</v>
+        <v>32.64676027288811</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>39.00558240300515</v>
+        <v>38.11072122780463</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>45.24145158080002</v>
+        <v>45.77879754614258</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>3.877721439499293</v>
+        <v>3.506197523154238</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>19.99413835416806</v>
+        <v>19.82989123283976</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>34.99086927465565</v>
+        <v>34.84721746318652</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>7.458295571650698</v>
+        <v>6.906672155408565</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>28.06902781870919</v>
+        <v>26.909818330193</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>33.08882172914373</v>
+        <v>31.87442463972016</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>-1.443151070597569</v>
+        <v>-1.060236869452318</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>25.36815191831824</v>
+        <v>24.3139676517137</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>33.06597892618825</v>
+        <v>32.04115581596406</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>0.1021703706147292</v>
+        <v>0.3479662900345595</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>41.0910488417303</v>
+        <v>39.61955117775023</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>31.33112006062584</v>
+        <v>29.56964140855481</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>23.95659252410314</v>
+        <v>22.07873523574085</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>40.3746197151842</v>
+        <v>39.23915458101413</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>39.76076914379939</v>
+        <v>38.98625568664893</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>9.195141594669234</v>
+        <v>8.74418740958038</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>21.98327911774956</v>
+        <v>21.14406860945938</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>30.71329295278062</v>
+        <v>29.70882210381712</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>13.65512509644093</v>
+        <v>13.68725679201077</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>26.46930507704572</v>
+        <v>26.0115089727239</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>39.36405147593043</v>
+        <v>38.39491304097339</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>-2.558014102800421</v>
+        <v>-1.343462325322843</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>10.04428798952245</v>
+        <v>8.476530338300414</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>15.62721883729787</v>
+        <v>14.8915026076683</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>0.1224158005094189</v>
+        <v>0.9627843372937335</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>29.31818355584408</v>
+        <v>27.46119407659841</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>46.09135844416059</v>
+        <v>45.42572179199986</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>28.81271487951661</v>
+        <v>26.65641211670597</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>48.6496933437187</v>
+        <v>47.49853609982131</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>54.07279150576998</v>
+        <v>52.86370741374213</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>6.563259498437315</v>
+        <v>6.930547661406383</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>27.72321716291436</v>
+        <v>26.15243698111276</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>39.17582573522566</v>
+        <v>37.25910266360215</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>57.54160443409293</v>
+        <v>56.10665277731869</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>54.9403897026727</v>
+        <v>53.51076109470569</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>62.04377145881618</v>
+        <v>59.93762586254353</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>60.06587351558798</v>
+        <v>58.57844308098603</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>20.28794851670795</v>
+        <v>19.78645577395194</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>58.10013526117221</v>
+        <v>56.23967060412163</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>60.63841916812123</v>
+        <v>59.04294531736235</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>22.25251619910971</v>
+        <v>23.25837816804298</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>38.27557574172563</v>
+        <v>37.0310594896052</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>46.17381900165965</v>
+        <v>45.38983330942412</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>0.4886472333372538</v>
+        <v>0.5946526478390872</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>45.95232275663674</v>
+        <v>44.79947013951669</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>45.93682051755104</v>
+        <v>45.88124247979091</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>4.516208173022168</v>
+        <v>4.428514820657742</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>68.2263055942353</v>
+        <v>67.60425621259176</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>70.97823728083573</v>
+        <v>69.8413750255523</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>77.93731259130604</v>
+        <v>76.21832828119101</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>82.25225788308958</v>
+        <v>80.49347449408548</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>83.44611483913732</v>
+        <v>82.24394858906719</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>29.36316227740738</v>
+        <v>30.26337236156986</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>80.02112892937062</v>
+        <v>77.45738803578286</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>80.81006131529428</v>
+        <v>79.02319876133897</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>61.62139425879445</v>
+        <v>59.70983647288128</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>51.02111827118526</v>
+        <v>49.14404698788221</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>55.6401897542823</v>
+        <v>53.68949096170805</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>61.03427234730599</v>
+        <v>59.45634209766254</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>11.85944283214728</v>
+        <v>11.26882086017438</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>54.1396049627485</v>
+        <v>51.97132100995306</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>59.68935391988823</v>
+        <v>57.6748733314506</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>13.51282907046812</v>
+        <v>13.55839680911436</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>36.01407338624767</v>
+        <v>35.25363854199378</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>45.49686362551651</v>
+        <v>44.49891633445749</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>-1.062784687858123</v>
+        <v>-0.6966350434964212</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>42.26619364329716</v>
+        <v>40.8279098969879</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>46.34791054577108</v>
+        <v>45.42065282357147</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>5.795207733965409</v>
+        <v>6.320077396952318</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>67.99285244256957</v>
+        <v>67.17753043245759</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>76.0240090748125</v>
+        <v>74.8304648889967</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>78.05767936415722</v>
+        <v>76.14009589718653</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>83.26692136738406</v>
+        <v>81.22395725337954</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>88.22422251834961</v>
+        <v>86.89054519117116</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>14.35016715558322</v>
+        <v>13.27325846228042</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>78.50788404825249</v>
+        <v>76.05932138624962</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>83.82558975846793</v>
+        <v>81.47501317431268</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>54.84817283932647</v>
+        <v>53.11345670033498</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>32.57949231406725</v>
+        <v>30.98427829697195</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>39.53048652337699</v>
+        <v>37.72309075537291</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>45.03666553834637</v>
+        <v>43.66313963915304</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>8.539163435156837</v>
+        <v>8.191835178193291</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>46.66408436443658</v>
+        <v>44.79110035122997</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>52.54158730075611</v>
+        <v>50.98122584061662</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>9.233531050462318</v>
+        <v>9.094154078130146</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>34.27105109285932</v>
+        <v>33.39041005217305</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>46.67964739915753</v>
+        <v>45.78280077133154</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>-0.9376092443802904</v>
+        <v>-0.5439714556095936</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>38.99577641630658</v>
+        <v>37.59042670142732</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>45.97484799242039</v>
+        <v>45.52445419787372</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>1.434304503924256</v>
+        <v>1.326061141146059</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>60.90647039238557</v>
+        <v>60.21385557776419</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>74.28986690242941</v>
+        <v>72.77394479215062</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>66.42983294823431</v>
+        <v>64.60122463391994</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>78.47819011264677</v>
+        <v>76.11337384839426</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>88.23773531439528</v>
+        <v>86.27716015642785</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>9.392190437276806</v>
+        <v>8.725578603377635</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>71.2938187445302</v>
+        <v>69.75480942648038</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>82.0069064980505</v>
+        <v>80.04203721632894</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>12.12863794256704</v>
+        <v>12.770806050077</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>13.80918852702893</v>
+        <v>14.46627875451777</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>24.0790773925967</v>
+        <v>24.27278294059389</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>1.68757691843069</v>
+        <v>2.327867639931608</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>16.37402951252595</v>
+        <v>17.14602499668615</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>20.38991030056359</v>
+        <v>19.86749188799679</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>6.751453543219839</v>
+        <v>6.914085125466524</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>25.86432920421607</v>
+        <v>27.27960448061435</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>30.31053463816966</v>
+        <v>30.56808824801021</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>14.54185966134457</v>
+        <v>14.9365942791916</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>17.93327745525251</v>
+        <v>18.93730555512445</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>17.46816564902547</v>
+        <v>17.93837514795045</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>12.00884556828413</v>
+        <v>12.92563532603415</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>11.00582257277451</v>
+        <v>11.13080262697928</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>25.80169466008983</v>
+        <v>26.3972756066252</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>9.880494511422587</v>
+        <v>10.12040092538078</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>17.51066136326668</v>
+        <v>18.3403417455364</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>25.31486832668722</v>
+        <v>26.98534588930879</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>7.358279642293819</v>
+        <v>7.103109361268142</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>10.1256750750939</v>
+        <v>10.82268068116307</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>13.89791043328709</v>
+        <v>14.71701032065733</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>2.938666613655744</v>
+        <v>3.106719325635503</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>11.40803723590049</v>
+        <v>12.64348830195392</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>16.65678205755865</v>
+        <v>17.01201650232417</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>23.38328370890284</v>
+        <v>23.03701542720849</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>25.88163508374804</v>
+        <v>24.44393412499085</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>1.971119555949191</v>
+        <v>2.162836354410953</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>28.32645227256933</v>
+        <v>28.15917269523469</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>29.65792479800355</v>
+        <v>28.75559211738486</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>6.515451782395179</v>
+        <v>6.627182658304488</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>38.88227944305531</v>
+        <v>38.53365366863982</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>39.30140372404793</v>
+        <v>38.63524850215516</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>39.36717849333832</v>
+        <v>39.58674502141844</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>43.17109559621106</v>
+        <v>43.84322037957328</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>43.76394565129475</v>
+        <v>44.08269706001674</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>21.72923742162885</v>
+        <v>22.26117173241141</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>36.65040321338012</v>
+        <v>37.8159965983441</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>44.70735550629408</v>
+        <v>45.09428254018117</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>14.16057302674517</v>
+        <v>14.96813002590082</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>22.97265344268206</v>
+        <v>23.60279098244933</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>26.77543458826599</v>
+        <v>27.64471364455543</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>7.027756143876278</v>
+        <v>6.939870616366523</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>23.24400538542692</v>
+        <v>23.69497422642387</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>28.53763654193839</v>
+        <v>29.77493321772733</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>33.2233754509347</v>
+        <v>34.13674460782946</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>10.78286555037284</v>
+        <v>10.01895741356705</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>21.70283436393237</v>
+        <v>21.28057918052136</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>26.52632082995965</v>
+        <v>26.8481988991611</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>2.019975843985133</v>
+        <v>2.221864907307058</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>28.90809678314494</v>
+        <v>29.58854173363488</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>32.83660757205055</v>
+        <v>33.1203029066885</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>8.68487069628576</v>
+        <v>9.051979460013921</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>43.32288942882626</v>
+        <v>44.03929155639138</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>45.92585357684109</v>
+        <v>46.1444822457761</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>43.63926766779651</v>
+        <v>44.98425104579846</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>44.07655588817759</v>
+        <v>45.50992927268894</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>48.23677552963612</v>
+        <v>49.4730205753044</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>14.59822535013628</v>
+        <v>14.13033253972304</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>31.95450188653109</v>
+        <v>32.49884702347037</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>42.00164771525975</v>
+        <v>43.03967057345803</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>10.24853453307148</v>
+        <v>11.01712813714378</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>23.17472460246945</v>
+        <v>24.3774854198218</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>26.94822674166168</v>
+        <v>28.011473639421</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>7.210176803032905</v>
+        <v>6.980254833940659</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>21.34146079235512</v>
+        <v>21.96978367469745</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>32.13204980903009</v>
+        <v>33.57360075691667</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>5.562780887482763</v>
+        <v>5.93550025448782</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>34.54612706016835</v>
+        <v>35.34741797115339</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>5.660285118715876</v>
+        <v>6.193845925597877</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>14.08502464056216</v>
+        <v>14.05553957005248</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>20.61030500696608</v>
+        <v>21.13545381159289</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>1.875571146279825</v>
+        <v>1.784585626324603</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>24.90491540264326</v>
+        <v>25.44642689788014</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>31.87066157245088</v>
+        <v>32.53265396214388</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>1.224115685977051</v>
+        <v>1.847437329044862</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>36.20123153294227</v>
+        <v>37.09927706086658</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>41.10833354682926</v>
+        <v>41.91523515833978</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>30.22264405894985</v>
+        <v>31.97603437159472</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>32.67146830290729</v>
+        <v>34.67651221006605</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>35.34620189073559</v>
+        <v>37.5624492188372</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>7.215252391191772</v>
+        <v>7.606532807753414</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>23.85114321967781</v>
+        <v>23.63954872553305</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>39.05501122240512</v>
+        <v>40.46970361958756</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>6.536224552149488</v>
+        <v>6.77922128387063</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>20.59264414596858</v>
+        <v>20.91701744444621</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>26.63051950830788</v>
+        <v>27.33346654213596</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>7.264865051222564</v>
+        <v>7.159797571436396</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>21.07879420393346</v>
+        <v>21.47405341222269</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>31.39216547035565</v>
+        <v>32.21950178026434</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>1.749406673941071</v>
+        <v>2.038896028189509</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>28.76265701492146</v>
+        <v>29.49771363523757</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>15.9469236003485</v>
+        <v>16.51638423012737</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>12.20096670242166</v>
+        <v>13.59613913222425</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>25.78276714637891</v>
+        <v>27.66359450268303</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>31.21365584390573</v>
+        <v>32.23934462606251</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>5.101142546077885</v>
+        <v>5.392215836540341</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>8.150362145537461</v>
+        <v>9.880942465955005</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>13.30515671761679</v>
+        <v>14.77890438132964</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>11.11578514441114</v>
+        <v>10.84465522943738</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>17.56260194989656</v>
+        <v>18.36236880594406</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>30.34028900932151</v>
+        <v>30.67031220302987</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>7.182541774875016</v>
+        <v>7.116933832772073</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>9.139571806514304</v>
+        <v>9.897052593174624</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>13.93575822601194</v>
+        <v>13.19469783959456</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>3.068467402516386</v>
+        <v>3.466294017343824</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>13.34729972682992</v>
+        <v>13.8092155312327</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>32.8662654518802</v>
+        <v>34.06767690685705</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>15.65354490366295</v>
+        <v>15.92998942764886</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>37.3102690833705</v>
+        <v>37.9349305452004</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>43.51001005112825</v>
+        <v>42.97408846975866</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>5.340738881541323</v>
+        <v>5.172772328518896</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>11.81108337171947</v>
+        <v>12.88174696278362</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>20.86875799072451</v>
+        <v>22.05316290129156</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>41.87804990437667</v>
+        <v>44.08095423135006</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>38.66693217991661</v>
+        <v>39.85204430312454</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>47.36947612269468</v>
+        <v>48.72145423002775</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>49.90810525963678</v>
+        <v>51.26459195381985</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>17.49588141026604</v>
+        <v>16.86707850324819</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>40.9812418367685</v>
+        <v>42.57726953982067</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>43.90602813112624</v>
+        <v>45.04627770847181</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>21.29913161850619</v>
+        <v>22.46006646117449</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>29.94850238641547</v>
+        <v>30.23360278780431</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>38.39540791098961</v>
+        <v>38.95850276322588</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>8.517856026784308</v>
+        <v>8.708247340292456</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>34.99369899121716</v>
+        <v>35.38679167168355</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>39.22401558309515</v>
+        <v>39.80316533004885</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>6.545109531510505</v>
+        <v>6.386333810004114</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>50.61189715726039</v>
+        <v>51.44506961833389</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>59.55121384977393</v>
+        <v>61.28057668905578</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>65.01132595043794</v>
+        <v>65.77639904545033</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>71.99400835155915</v>
+        <v>72.27625229882693</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>76.75591785228083</v>
+        <v>77.55646954944103</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>30.58470981627817</v>
+        <v>30.29287767943204</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>60.77989801383738</v>
+        <v>61.62025747510718</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>65.21075891929047</v>
+        <v>66.34076823438741</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>47.40937299952051</v>
+        <v>48.99670312364738</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>34.07254082579578</v>
+        <v>34.29601502495982</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>39.37918616218234</v>
+        <v>40.44789116577458</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>48.9664003118105</v>
+        <v>49.98365108471816</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>11.41107388890201</v>
+        <v>11.72782969578354</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>39.00256283309763</v>
+        <v>40.60851664797985</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>44.32313996279698</v>
+        <v>45.55072132129831</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>16.20010104107442</v>
+        <v>15.89034511415865</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>29.6664194616121</v>
+        <v>30.29456186386124</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>38.95753122655421</v>
+        <v>39.19236983389295</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>7.931168199298025</v>
+        <v>7.599628726107458</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>33.18841756311448</v>
+        <v>34.02437639361103</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>42.03169565097399</v>
+        <v>42.66930068758737</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>8.900989207343688</v>
+        <v>8.719289269697843</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>52.59125948635656</v>
+        <v>52.81736403693034</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>65.43484350480655</v>
+        <v>67.14206296679879</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>65.63615917925711</v>
+        <v>65.37403441933674</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>69.50812413335395</v>
+        <v>69.90933492224421</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>79.74151830378432</v>
+        <v>80.05181714506313</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>17.58341535220435</v>
+        <v>16.39149516302605</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>57.35984931377149</v>
+        <v>57.80113552548524</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>68.53704614577474</v>
+        <v>69.82841969646049</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>43.93113338506944</v>
+        <v>44.91896815524127</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>18.22202716518827</v>
+        <v>19.14840465731598</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>24.55839917563652</v>
+        <v>25.76486566619615</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>36.42981196128001</v>
+        <v>37.49777381941466</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>7.198846347448498</v>
+        <v>7.505477361925426</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>36.49781146059024</v>
+        <v>36.9255322572594</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>43.41462899121356</v>
+        <v>44.03796688863477</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>11.10528467165921</v>
+        <v>11.03746099893619</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>28.37800312299408</v>
+        <v>28.9805847334691</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>40.49851969249467</v>
+        <v>41.3277187013864</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>8.188265179733303</v>
+        <v>8.32154781693604</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>30.33489020968758</v>
+        <v>30.89951945099964</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>44.18789368777195</v>
+        <v>44.77683681244885</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>3.387298673987793</v>
+        <v>2.777064438057408</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>44.03133216782062</v>
+        <v>44.54015639021064</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>64.24330775147645</v>
+        <v>65.67556285912177</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>50.06788077679582</v>
+        <v>50.30152721827439</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>60.47297221526966</v>
+        <v>60.22634790275076</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>78.16807974492814</v>
+        <v>78.52851422760561</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>9.400968287863567</v>
+        <v>9.526361639011814</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>46.43347845205622</v>
+        <v>46.02882922053358</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>65.32304776964072</v>
+        <v>66.64709216145405</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>12.29817725414539</v>
+        <v>12.81062037697141</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>14.19217511864168</v>
+        <v>14.61527392244414</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>26.27739874025941</v>
+        <v>26.3369245130845</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>2.28163054790436</v>
+        <v>2.657005099766156</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>18.61561787600146</v>
+        <v>19.0720548869173</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>23.36779704589436</v>
+        <v>22.40143220545327</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>6.646147767760272</v>
+        <v>6.621051549791456</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>28.58836106869646</v>
+        <v>29.82394063698354</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>33.55470857313314</v>
+        <v>33.73891620145178</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>16.199816699668</v>
+        <v>15.87012342338119</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>20.37338639940003</v>
+        <v>20.90287287790078</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>19.69526891064592</v>
+        <v>19.7369188110048</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>12.65731950449389</v>
+        <v>13.34080275507121</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>11.5780323655946</v>
+        <v>11.76455424756596</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>28.5408808584568</v>
+        <v>29.00342143413266</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>12.56972699956981</v>
+        <v>12.19412196621233</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>21.81602159978328</v>
+        <v>21.71599216705996</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>29.85913391098857</v>
+        <v>30.69902993938384</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>8.093397524050712</v>
+        <v>7.592355053200812</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>14.02923757833844</v>
+        <v>13.71009568990519</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>17.69257114134738</v>
+        <v>17.71951821761975</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>3.400656466921522</v>
+        <v>3.417758876781999</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>17.9388209030373</v>
+        <v>17.90535110356384</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>16.98607872581566</v>
+        <v>17.68572733612434</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>24.08610513425768</v>
+        <v>23.94009839693793</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>27.28637843347434</v>
+        <v>25.98552507015773</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>2.542003262807317</v>
+        <v>2.674286959099668</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>31.37065396415749</v>
+        <v>30.99610298649383</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>32.42169588226461</v>
+        <v>31.3952877721912</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>6.591610731332207</v>
+        <v>6.853922693019399</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>41.9188800503791</v>
+        <v>41.56867326773015</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>42.14153836844767</v>
+        <v>41.39671102167138</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>42.60557875551956</v>
+        <v>42.34697642760443</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>45.72627372127488</v>
+        <v>46.12165871156448</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>45.90619630667715</v>
+        <v>45.96647845009667</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>22.14847849266607</v>
+        <v>22.92765107204544</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>38.36088032146208</v>
+        <v>39.87179296948216</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>46.83592918017425</v>
+        <v>47.4509092766848</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>17.76084160529916</v>
+        <v>18.32676206830834</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>28.60011624201884</v>
+        <v>28.19024240477234</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>31.18270825523977</v>
+        <v>31.16250755113613</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>8.58527611666501</v>
+        <v>7.966175998009714</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>30.11278190958026</v>
+        <v>29.26580901214275</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>33.74300858423999</v>
+        <v>33.8019317150788</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>42.43731773401942</v>
+        <v>41.60546646534804</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>9.816010647670623</v>
+        <v>9.177397997127795</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>21.63946672471453</v>
+        <v>21.41242137051504</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>27.57837481063471</v>
+        <v>28.29384895485023</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>2.046234834388564</v>
+        <v>2.186417394083318</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>31.35144186071065</v>
+        <v>31.77900899360786</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>35.30939855274625</v>
+        <v>35.32206451578353</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>7.869426593460201</v>
+        <v>8.483630907979464</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>45.60799932267346</v>
+        <v>46.23810650231058</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>48.33886887562107</v>
+        <v>48.47034181682549</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>47.08734640820303</v>
+        <v>47.86473363391847</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>46.99700028925355</v>
+        <v>48.18902117413909</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>50.7939910647455</v>
+        <v>51.92707984039835</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>13.75112271721015</v>
+        <v>13.09973982639058</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>32.76504364687734</v>
+        <v>33.13365116258559</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>43.35564168838766</v>
+        <v>44.29345173671837</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>12.99144241827483</v>
+        <v>13.25745295327081</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>28.65517815875332</v>
+        <v>28.88520976823192</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>31.19797858234173</v>
+        <v>31.41834994495275</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>8.611661609438698</v>
+        <v>8.002835334766477</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>28.31337123442292</v>
+        <v>27.70644557709495</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>37.58494346445353</v>
+        <v>37.72475990050179</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>6.795288099937668</v>
+        <v>6.875567027685168</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>44.0592064307197</v>
+        <v>43.45511505834398</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>4.971688522454325</v>
+        <v>5.616785327524813</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>14.21598595621337</v>
+        <v>14.23073315788348</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>22.59824554085984</v>
+        <v>23.19320560793031</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>2.504442661458842</v>
+        <v>2.227384018045516</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>27.66487733485627</v>
+        <v>27.80125644688291</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>35.60169880396918</v>
+        <v>35.81951090849726</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>1.144244108103599</v>
+        <v>1.864384828454586</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>39.39334934238428</v>
+        <v>40.05259545193279</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>44.72117076973862</v>
+        <v>45.27090215914691</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>34.03492165067787</v>
+        <v>35.17834976471055</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>36.8044404542346</v>
+        <v>38.33180872641857</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>39.46705097869304</v>
+        <v>41.4556797325707</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>7.166563027957444</v>
+        <v>7.28705975109041</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>25.08417285222436</v>
+        <v>24.75853777264355</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>41.8867992904458</v>
+        <v>43.18910386833207</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>8.932549190774285</v>
+        <v>8.681862297822946</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>25.97887229259338</v>
+        <v>25.35657483337012</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>31.47956707017871</v>
+        <v>31.25572182075442</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>8.516915624228286</v>
+        <v>8.089806050754863</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>27.13135930391156</v>
+        <v>26.33219528160916</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>36.51815562125726</v>
+        <v>36.17906680364474</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>2.451574333181586</v>
+        <v>2.630467941993651</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>37.09306364811248</v>
+        <v>36.46765001774158</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>22.79039928361831</v>
+        <v>22.20771470592328</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>17.81147679720289</v>
+        <v>17.80724820699953</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>34.08875935725024</v>
+        <v>34.62689641050574</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>39.01844035397236</v>
+        <v>38.76595211173247</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>7.660399025075989</v>
+        <v>7.414341807064542</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>14.02201753440539</v>
+        <v>14.35137185625579</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>19.86737276512957</v>
+        <v>20.01872311210901</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>10.87677850349474</v>
+        <v>10.51598696006831</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>18.19004734666943</v>
+        <v>18.61761976336089</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>33.85311074080205</v>
+        <v>33.60782961533008</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>8.069143857558362</v>
+        <v>7.734754262452558</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>11.8261991815636</v>
+        <v>11.6507965119846</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>17.24861419731436</v>
+        <v>15.47182181197829</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>2.655924203604851</v>
+        <v>3.245567924352994</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>16.61836035096289</v>
+        <v>16.38770033788212</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>38.79415642632006</v>
+        <v>39.20139795529167</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>19.15323839521345</v>
+        <v>18.25130856207927</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>44.29968933590064</v>
+        <v>43.9075068104447</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>51.495618934327</v>
+        <v>49.88151264670386</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>5.665854135428734</v>
+        <v>5.41337429980539</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>16.41642464600269</v>
+        <v>16.06785272455058</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>26.07431302104301</v>
+        <v>25.81319263031184</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>49.79190748479355</v>
+        <v>50.41997411109526</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>47.90519084662532</v>
+        <v>47.45567843987708</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>56.43255253790744</v>
+        <v>55.93944267155814</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>58.34527988805537</v>
+        <v>58.06523455147881</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>21.32354273353598</v>
+        <v>20.19840616781654</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>49.57111677013361</v>
+        <v>49.45115656579008</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>51.61256283634751</v>
+        <v>51.2905115440439</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>20.78612247756756</v>
+        <v>22.09340771499595</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>31.76119127892386</v>
+        <v>31.83510270074737</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>41.27341602265528</v>
+        <v>41.16451216865067</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>9.349753576497012</v>
+        <v>9.164750783024306</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>40.4439625294233</v>
+        <v>39.83000749514858</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>44.01134074679359</v>
+        <v>43.49074494545224</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>5.146401980899608</v>
+        <v>4.986136557312715</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>55.57180297823125</v>
+        <v>55.73844684199507</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>65.61270903793512</v>
+        <v>66.37971224047594</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>69.65068823252504</v>
+        <v>69.33796699570897</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>77.93280406564513</v>
+        <v>76.85925226257547</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>83.02767717735418</v>
+        <v>82.42441423620367</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>29.26653657295432</v>
+        <v>28.95208616537717</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>67.3264343715789</v>
+        <v>66.7494516201364</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>70.80220487534432</v>
+        <v>70.73249752507986</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>55.5428756456156</v>
+        <v>55.67042488612679</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>43.61436626737355</v>
+        <v>42.27510336776081</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>48.87415062993914</v>
+        <v>48.27935823146551</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>57.69485788075541</v>
+        <v>57.1812225688457</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>14.41188885373291</v>
+        <v>14.06815348079005</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>47.5645941636745</v>
+        <v>47.47822933217499</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>14.89408201196867</v>
+        <v>14.6045699762116</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>31.13518750376581</v>
+        <v>31.48204948727949</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>41.69745509253281</v>
+        <v>41.30321315939894</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>8.748054891003097</v>
+        <v>8.180686921413621</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>38.47409820646762</v>
+        <v>38.1412635703653</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>47.27370982631791</v>
+        <v>46.82577747204397</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>7.468516224951479</v>
+        <v>7.619184506978549</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>57.56417841427295</v>
+        <v>57.12019894968938</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>71.64956611497364</v>
+        <v>72.38088275612361</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>70.58409739423192</v>
+        <v>69.2494810403248</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>76.0169544076097</v>
+        <v>75.29400692054965</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>86.21505335449433</v>
+        <v>85.08340266680189</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>15.58973550062414</v>
+        <v>14.11783524373282</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>64.21312021366842</v>
+        <v>63.1228876062395</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>74.62661335936475</v>
+        <v>74.77620212632485</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>51.75016022448156</v>
+        <v>51.36545788927256</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>25.4362972714639</v>
+        <v>24.98570770953287</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>33.1918495109233</v>
+        <v>32.51935979865287</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>44.90925447342429</v>
+        <v>44.38850495175772</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>9.661538955495285</v>
+        <v>9.448178860287435</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>44.74882037043746</v>
+        <v>43.72209543428276</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>50.77614517406955</v>
+        <v>49.994592992788</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>10.31331365554929</v>
+        <v>10.29020727868756</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>29.6036377405055</v>
+        <v>29.91651442752437</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>44.00151476717625</v>
+        <v>44.16970934071162</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>9.396127403220323</v>
+        <v>9.178143756558573</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>34.5471384363094</v>
+        <v>34.01693215723228</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>49.39175915926027</v>
+        <v>49.04122048774492</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>3.035615368736693</v>
+        <v>2.493969984749089</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>48.49886904490276</v>
+        <v>48.12892485663221</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>70.96700792288789</v>
+        <v>71.27411725984673</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>54.78759077576315</v>
+        <v>53.85986500519657</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>67.97190763488094</v>
+        <v>66.30566243109949</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>86.6260096990156</v>
+        <v>85.62229235661525</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>9.069429467800664</v>
+        <v>8.787898067604001</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>53.63648921275994</v>
+        <v>51.85526994989301</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>72.06186100386897</v>
+        <v>72.01918084521471</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>11.13503476233154</v>
+        <v>12.40561860243919</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>11.56324973855438</v>
+        <v>12.64215420845663</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>22.04902399878046</v>
+        <v>22.87196514788535</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>5.522307438985408</v>
+        <v>5.7130274068634</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>18.79193456421213</v>
+        <v>19.17117338696524</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>21.65575238000052</v>
+        <v>21.43328405700337</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>8.53209942657168</v>
+        <v>8.883599061102412</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>27.67459422979449</v>
+        <v>28.39468922918356</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>30.22450069875072</v>
+        <v>30.94007806915382</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>15.78209814115363</v>
+        <v>15.47927055227153</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>21.97312135754656</v>
+        <v>22.05515313973826</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>21.34673964737776</v>
+        <v>21.56106875650595</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>15.98488168780892</v>
+        <v>16.53288984243824</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>12.28499725651335</v>
+        <v>13.53290027735681</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>29.47862464045835</v>
+        <v>29.92722155141779</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>15.41806328198276</v>
+        <v>14.77378750371633</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>25.30066464269943</v>
+        <v>24.64728596862345</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>28.95950852556765</v>
+        <v>28.90272365434586</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>5.439775428091078</v>
+        <v>5.607898232871591</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>15.64805467137744</v>
+        <v>14.33990021311602</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>17.9642158463182</v>
+        <v>17.48367312136869</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>5.570476720010664</v>
+        <v>5.962339397064699</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>27.55107562002775</v>
+        <v>26.06494365384405</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>13.88257783539633</v>
+        <v>15.56546684268956</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>16.5210488294624</v>
+        <v>18.49049183492821</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>21.37549625026936</v>
+        <v>22.34465413719607</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>4.717474655934435</v>
+        <v>5.359369584645695</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>26.14378582516263</v>
+        <v>26.39995220756417</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>26.53587257731214</v>
+        <v>27.21750490990235</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>7.991805729831174</v>
+        <v>8.97204530082173</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>34.47158188298907</v>
+        <v>35.50596641593987</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>34.00281987845929</v>
+        <v>35.12768540190348</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>32.60668792082453</v>
+        <v>33.14784647167657</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>37.1701626337189</v>
+        <v>38.36526175891957</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>37.16149415124259</v>
+        <v>38.00376071736288</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>20.38529319184098</v>
+        <v>21.64103129010686</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>28.55172084048978</v>
+        <v>31.40776333578405</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>36.63824435427561</v>
+        <v>37.91168484863111</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>20.53071162016153</v>
+        <v>20.96232480800684</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>30.50528290342849</v>
+        <v>29.86193973953319</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>30.91117380384946</v>
+        <v>30.8021999605074</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>6.599996804538083</v>
+        <v>6.617966816732594</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>32.69385436257222</v>
+        <v>31.29162406000056</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>32.90154690378399</v>
+        <v>32.235209444351</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>6.344811063837088</v>
+        <v>6.749536043844802</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>47.06802807900308</v>
+        <v>45.28436424947422</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>6.889848340904145</v>
+        <v>7.646509079639749</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>13.03258425651554</v>
+        <v>14.52076912003447</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>20.42523676043982</v>
+        <v>22.16967917740916</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>3.61590459898046</v>
+        <v>4.20503106666219</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>24.41338860737136</v>
+        <v>24.86022744872388</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>26.22054258010991</v>
+        <v>26.70838085760431</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>8.427673760585947</v>
+        <v>9.183137724104427</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>35.04930423739498</v>
+        <v>36.17199589595837</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>37.32893037987962</v>
+        <v>38.15435283668037</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>36.72266868867246</v>
+        <v>37.25253857955177</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>37.94889931149059</v>
+        <v>38.7369090584489</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>42.45075975854313</v>
+        <v>44.30898671123214</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>11.90833819513979</v>
+        <v>11.31882812324942</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>21.96600328329131</v>
+        <v>23.2132977610535</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>31.34938691902448</v>
+        <v>31.91300233903988</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>15.035158644576</v>
+        <v>14.62678998499824</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>29.27740863081114</v>
+        <v>28.62217551949973</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>30.28385671289587</v>
+        <v>30.08647357697826</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>6.184348596102037</v>
+        <v>6.222280049168837</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>29.74668583389762</v>
+        <v>28.24844651286342</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>33.6954241269792</v>
+        <v>32.67360790282844</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>8.576344930061193</v>
+        <v>8.792024145261568</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>46.0537214426314</v>
+        <v>44.317082019808</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>3.860857734055738</v>
+        <v>5.0643469816542</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>8.58554294804885</v>
+        <v>9.967503311600655</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>18.49270038110384</v>
+        <v>19.76659142449647</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>3.766952283823173</v>
+        <v>4.241244373315514</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>22.93747461382313</v>
+        <v>23.04303508269592</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>28.10150320306738</v>
+        <v>28.40892946190325</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>2.848297732974931</v>
+        <v>4.054840514447211</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>30.52144130813511</v>
+        <v>31.06617847165067</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>35.65641282846845</v>
+        <v>36.5917713611034</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>29.96447375272864</v>
+        <v>30.73847200043599</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>33.54902097005709</v>
+        <v>34.49989037684662</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>36.77680171943432</v>
+        <v>38.91594924470711</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>7.793531532559836</v>
+        <v>7.771478505187396</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>17.68972550630172</v>
+        <v>18.40648436726346</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>33.69642649962347</v>
+        <v>34.38044570016365</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>11.9060245441252</v>
+        <v>11.3475757134992</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>27.3543860874676</v>
+        <v>26.38014383467343</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>29.93812504084114</v>
+        <v>29.441003367924</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>5.689758456936605</v>
+        <v>5.860091975921566</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>27.83478710365828</v>
+        <v>26.29486433560366</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>31.17062026658911</v>
+        <v>30.34744946886849</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>4.432366286845124</v>
+        <v>5.025559258693804</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>39.4034275722278</v>
+        <v>37.71902133691507</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>28.94838445368269</v>
+        <v>27.98154835064282</v>
       </c>
     </row>
     <row r="992">
@@ -25421,7 +25421,7 @@
         </is>
       </c>
       <c r="E992" t="n">
-        <v>23.47339827008408</v>
+        <v>22.00335824327087</v>
       </c>
     </row>
     <row r="993">
@@ -25446,7 +25446,7 @@
         </is>
       </c>
       <c r="E993" t="n">
-        <v>38.15935804243311</v>
+        <v>37.18648076829434</v>
       </c>
     </row>
     <row r="994">
@@ -25471,7 +25471,7 @@
         </is>
       </c>
       <c r="E994" t="n">
-        <v>38.96076574118677</v>
+        <v>38.27366590964218</v>
       </c>
     </row>
     <row r="995">
@@ -25496,7 +25496,7 @@
         </is>
       </c>
       <c r="E995" t="n">
-        <v>13.41065851382604</v>
+        <v>12.73638341675371</v>
       </c>
     </row>
     <row r="996">
@@ -25521,7 +25521,7 @@
         </is>
       </c>
       <c r="E996" t="n">
-        <v>22.2195743993736</v>
+        <v>21.6753374273697</v>
       </c>
     </row>
     <row r="997">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="E997" t="n">
-        <v>27.55192055495199</v>
+        <v>27.29668466685169</v>
       </c>
     </row>
     <row r="998">
@@ -25571,7 +25571,7 @@
         </is>
       </c>
       <c r="E998" t="n">
-        <v>15.85474506063884</v>
+        <v>15.68191564579388</v>
       </c>
     </row>
     <row r="999">
@@ -25596,7 +25596,7 @@
         </is>
       </c>
       <c r="E999" t="n">
-        <v>24.08050739772614</v>
+        <v>23.84149314722307</v>
       </c>
     </row>
     <row r="1000">
@@ -25621,7 +25621,7 @@
         </is>
       </c>
       <c r="E1000" t="n">
-        <v>36.96851727950452</v>
+        <v>35.9526650867109</v>
       </c>
     </row>
     <row r="1001">
@@ -25646,7 +25646,7 @@
         </is>
       </c>
       <c r="E1001" t="n">
-        <v>5.369930706634698</v>
+        <v>5.701051286167658</v>
       </c>
     </row>
     <row r="1002">
@@ -25671,7 +25671,7 @@
         </is>
       </c>
       <c r="E1002" t="n">
-        <v>14.86581971166031</v>
+        <v>13.2353166920447</v>
       </c>
     </row>
     <row r="1003">
@@ -25696,7 +25696,7 @@
         </is>
       </c>
       <c r="E1003" t="n">
-        <v>20.06646297413605</v>
+        <v>18.63811583354018</v>
       </c>
     </row>
     <row r="1004">
@@ -25721,7 +25721,7 @@
         </is>
       </c>
       <c r="E1004" t="n">
-        <v>5.273006758243795</v>
+        <v>6.130614177676645</v>
       </c>
     </row>
     <row r="1005">
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="E1005" t="n">
-        <v>28.11837620854178</v>
+        <v>26.24592720762121</v>
       </c>
     </row>
     <row r="1006">
@@ -25771,7 +25771,7 @@
         </is>
       </c>
       <c r="E1006" t="n">
-        <v>43.9158826086024</v>
+        <v>43.40208381432801</v>
       </c>
     </row>
     <row r="1007">
@@ -25796,7 +25796,7 @@
         </is>
       </c>
       <c r="E1007" t="n">
-        <v>26.14371156840004</v>
+        <v>24.10136149395253</v>
       </c>
     </row>
     <row r="1008">
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="E1008" t="n">
-        <v>46.30430380027332</v>
+        <v>44.74569379122988</v>
       </c>
     </row>
     <row r="1009">
@@ -25846,7 +25846,7 @@
         </is>
       </c>
       <c r="E1009" t="n">
-        <v>51.02972736635279</v>
+        <v>49.07783713671972</v>
       </c>
     </row>
     <row r="1010">
@@ -25871,7 +25871,7 @@
         </is>
       </c>
       <c r="E1010" t="n">
-        <v>11.38494890551413</v>
+        <v>11.27533170594931</v>
       </c>
     </row>
     <row r="1011">
@@ -25896,7 +25896,7 @@
         </is>
       </c>
       <c r="E1011" t="n">
-        <v>27.01533174405158</v>
+        <v>25.29415598637357</v>
       </c>
     </row>
     <row r="1012">
@@ -25921,7 +25921,7 @@
         </is>
       </c>
       <c r="E1012" t="n">
-        <v>35.52915941962718</v>
+        <v>33.79736368283117</v>
       </c>
     </row>
     <row r="1013">
@@ -25946,7 +25946,7 @@
         </is>
       </c>
       <c r="E1013" t="n">
-        <v>49.51714210137422</v>
+        <v>48.84313008794602</v>
       </c>
     </row>
     <row r="1014">
@@ -25971,7 +25971,7 @@
         </is>
       </c>
       <c r="E1014" t="n">
-        <v>48.76764796932122</v>
+        <v>47.16280519893064</v>
       </c>
     </row>
     <row r="1015">
@@ -25996,7 +25996,7 @@
         </is>
       </c>
       <c r="E1015" t="n">
-        <v>54.6882842730213</v>
+        <v>52.80912373546607</v>
       </c>
     </row>
     <row r="1016">
@@ -26021,7 +26021,7 @@
         </is>
       </c>
       <c r="E1016" t="n">
-        <v>54.24876556081459</v>
+        <v>53.10285912569788</v>
       </c>
     </row>
     <row r="1017">
@@ -26046,7 +26046,7 @@
         </is>
       </c>
       <c r="E1017" t="n">
-        <v>24.77104262299164</v>
+        <v>23.6559685530496</v>
       </c>
     </row>
     <row r="1018">
@@ -26071,7 +26071,7 @@
         </is>
       </c>
       <c r="E1018" t="n">
-        <v>50.57016949477736</v>
+        <v>49.02861148823672</v>
       </c>
     </row>
     <row r="1019">
@@ -26096,7 +26096,7 @@
         </is>
       </c>
       <c r="E1019" t="n">
-        <v>50.21281218565179</v>
+        <v>49.24795484121399</v>
       </c>
     </row>
     <row r="1020">
@@ -26121,7 +26121,7 @@
         </is>
       </c>
       <c r="E1020" t="n">
-        <v>23.44636145954991</v>
+        <v>24.29261252766737</v>
       </c>
     </row>
     <row r="1021">
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="E1021" t="n">
-        <v>7.310322007401972</v>
+        <v>7.181582916996383</v>
       </c>
     </row>
     <row r="1022">
@@ -26171,7 +26171,7 @@
         </is>
       </c>
       <c r="E1022" t="n">
-        <v>42.64303302675933</v>
+        <v>40.90971349585574</v>
       </c>
     </row>
     <row r="1023">
@@ -26196,7 +26196,7 @@
         </is>
       </c>
       <c r="E1023" t="n">
-        <v>43.49001194213525</v>
+        <v>42.68638896146464</v>
       </c>
     </row>
     <row r="1024">
@@ -26221,7 +26221,7 @@
         </is>
       </c>
       <c r="E1024" t="n">
-        <v>8.082642450474911</v>
+        <v>8.23870761667354</v>
       </c>
     </row>
     <row r="1025">
@@ -26246,7 +26246,7 @@
         </is>
       </c>
       <c r="E1025" t="n">
-        <v>59.37804013644642</v>
+        <v>57.99220293910446</v>
       </c>
     </row>
     <row r="1026">
@@ -26271,7 +26271,7 @@
         </is>
       </c>
       <c r="E1026" t="n">
-        <v>63.62029586316091</v>
+        <v>62.86051377013248</v>
       </c>
     </row>
     <row r="1027">
@@ -26296,7 +26296,7 @@
         </is>
       </c>
       <c r="E1027" t="n">
-        <v>66.20161397549185</v>
+        <v>64.15359940107642</v>
       </c>
     </row>
     <row r="1028">
@@ -26321,7 +26321,7 @@
         </is>
       </c>
       <c r="E1028" t="n">
-        <v>72.30493072701799</v>
+        <v>70.19593521146308</v>
       </c>
     </row>
     <row r="1029">
@@ -26346,7 +26346,7 @@
         </is>
       </c>
       <c r="E1029" t="n">
-        <v>74.55496079344066</v>
+        <v>72.84262278139074</v>
       </c>
     </row>
     <row r="1030">
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="E1030" t="n">
-        <v>31.37578799702184</v>
+        <v>31.53170304738127</v>
       </c>
     </row>
     <row r="1031">
@@ -26396,7 +26396,7 @@
         </is>
       </c>
       <c r="E1031" t="n">
-        <v>68.84007072712606</v>
+        <v>65.97300706267887</v>
       </c>
     </row>
     <row r="1032">
@@ -26421,7 +26421,7 @@
         </is>
       </c>
       <c r="E1032" t="n">
-        <v>68.92396355458587</v>
+        <v>67.17733379932311</v>
       </c>
     </row>
     <row r="1033">
@@ -26446,7 +26446,7 @@
         </is>
       </c>
       <c r="E1033" t="n">
-        <v>52.9858729820259</v>
+        <v>51.89312014910782</v>
       </c>
     </row>
     <row r="1034">
@@ -26471,7 +26471,7 @@
         </is>
       </c>
       <c r="E1034" t="n">
-        <v>45.60663291672697</v>
+        <v>43.50511243706651</v>
       </c>
     </row>
     <row r="1035">
@@ -26496,7 +26496,7 @@
         </is>
       </c>
       <c r="E1035" t="n">
-        <v>49.00126930682319</v>
+        <v>47.32680973378482</v>
       </c>
     </row>
     <row r="1036">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="E1036" t="n">
-        <v>54.12135561694717</v>
+        <v>52.76221450798795</v>
       </c>
     </row>
     <row r="1037">
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="E1037" t="n">
-        <v>17.42893134028007</v>
+        <v>16.23558277042988</v>
       </c>
     </row>
     <row r="1038">
@@ -26571,7 +26571,7 @@
         </is>
       </c>
       <c r="E1038" t="n">
-        <v>47.26878050505954</v>
+        <v>45.58495276605878</v>
       </c>
     </row>
     <row r="1039">
@@ -26596,7 +26596,7 @@
         </is>
       </c>
       <c r="E1039" t="n">
-        <v>49.55230141059405</v>
+        <v>48.53265696115868</v>
       </c>
     </row>
     <row r="1040">
@@ -26621,7 +26621,7 @@
         </is>
       </c>
       <c r="E1040" t="n">
-        <v>16.44727913422322</v>
+        <v>16.2523329563298</v>
       </c>
     </row>
     <row r="1041">
@@ -26646,7 +26646,7 @@
         </is>
       </c>
       <c r="E1041" t="n">
-        <v>31.87562766265378</v>
+        <v>31.47522345154283</v>
       </c>
     </row>
     <row r="1042">
@@ -26671,7 +26671,7 @@
         </is>
       </c>
       <c r="E1042" t="n">
-        <v>41.11034399941268</v>
+        <v>40.26542612937178</v>
       </c>
     </row>
     <row r="1043">
@@ -26696,7 +26696,7 @@
         </is>
       </c>
       <c r="E1043" t="n">
-        <v>6.166740959982008</v>
+        <v>6.159959486190754</v>
       </c>
     </row>
     <row r="1044">
@@ -26721,7 +26721,7 @@
         </is>
       </c>
       <c r="E1044" t="n">
-        <v>40.30624413720123</v>
+        <v>38.50547643248264</v>
       </c>
     </row>
     <row r="1045">
@@ -26746,7 +26746,7 @@
         </is>
       </c>
       <c r="E1045" t="n">
-        <v>43.98518806040911</v>
+        <v>42.68051501917331</v>
       </c>
     </row>
     <row r="1046">
@@ -26771,7 +26771,7 @@
         </is>
       </c>
       <c r="E1046" t="n">
-        <v>9.191072678842904</v>
+        <v>9.75135329148555</v>
       </c>
     </row>
     <row r="1047">
@@ -26796,7 +26796,7 @@
         </is>
       </c>
       <c r="E1047" t="n">
-        <v>59.82102376755753</v>
+        <v>58.20298806555326</v>
       </c>
     </row>
     <row r="1048">
@@ -26821,7 +26821,7 @@
         </is>
       </c>
       <c r="E1048" t="n">
-        <v>67.74389683331776</v>
+        <v>66.90284531535458</v>
       </c>
     </row>
     <row r="1049">
@@ -26846,7 +26846,7 @@
         </is>
       </c>
       <c r="E1049" t="n">
-        <v>67.07922984788408</v>
+        <v>64.67860745958259</v>
       </c>
     </row>
     <row r="1050">
@@ -26871,7 +26871,7 @@
         </is>
       </c>
       <c r="E1050" t="n">
-        <v>72.52874463517171</v>
+        <v>70.41192201130733</v>
       </c>
     </row>
     <row r="1051">
@@ -26896,7 +26896,7 @@
         </is>
       </c>
       <c r="E1051" t="n">
-        <v>77.89337671933116</v>
+        <v>75.96415287688563</v>
       </c>
     </row>
     <row r="1052">
@@ -26921,7 +26921,7 @@
         </is>
       </c>
       <c r="E1052" t="n">
-        <v>18.44653567416198</v>
+        <v>16.95679913472957</v>
       </c>
     </row>
     <row r="1053">
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="E1053" t="n">
-        <v>67.48669076918397</v>
+        <v>64.62193297689369</v>
       </c>
     </row>
     <row r="1054">
@@ -26971,7 +26971,7 @@
         </is>
       </c>
       <c r="E1054" t="n">
-        <v>71.97748354712419</v>
+        <v>70.01019353675639</v>
       </c>
     </row>
     <row r="1055">
@@ -26996,7 +26996,7 @@
         </is>
       </c>
       <c r="E1055" t="n">
-        <v>48.12124193124225</v>
+        <v>46.93029642485556</v>
       </c>
     </row>
     <row r="1056">
@@ -27021,7 +27021,7 @@
         </is>
       </c>
       <c r="E1056" t="n">
-        <v>30.86530974921213</v>
+        <v>29.31061943160142</v>
       </c>
     </row>
     <row r="1057">
@@ -27046,7 +27046,7 @@
         </is>
       </c>
       <c r="E1057" t="n">
-        <v>36.37880887197252</v>
+        <v>34.80619802883562</v>
       </c>
     </row>
     <row r="1058">
@@ -27071,7 +27071,7 @@
         </is>
       </c>
       <c r="E1058" t="n">
-        <v>41.60381109491345</v>
+        <v>40.49510748154473</v>
       </c>
     </row>
     <row r="1059">
@@ -27096,7 +27096,7 @@
         </is>
       </c>
       <c r="E1059" t="n">
-        <v>13.23107988054783</v>
+        <v>12.62253428422576</v>
       </c>
     </row>
     <row r="1060">
@@ -27121,7 +27121,7 @@
         </is>
       </c>
       <c r="E1060" t="n">
-        <v>42.90619172468317</v>
+        <v>41.06935618352201</v>
       </c>
     </row>
     <row r="1061">
@@ -27146,7 +27146,7 @@
         </is>
       </c>
       <c r="E1061" t="n">
-        <v>45.78646404945492</v>
+        <v>44.57158849783526</v>
       </c>
     </row>
     <row r="1062">
@@ -27171,7 +27171,7 @@
         </is>
       </c>
       <c r="E1062" t="n">
-        <v>13.47871617529769</v>
+        <v>13.2131361760303</v>
       </c>
     </row>
     <row r="1063">
@@ -27196,7 +27196,7 @@
         </is>
       </c>
       <c r="E1063" t="n">
-        <v>31.84142038416243</v>
+        <v>31.04478517697225</v>
       </c>
     </row>
     <row r="1064">
@@ -27221,7 +27221,7 @@
         </is>
       </c>
       <c r="E1064" t="n">
-        <v>43.71372471101283</v>
+        <v>42.81713185378965</v>
       </c>
     </row>
     <row r="1065">
@@ -27246,7 +27246,7 @@
         </is>
       </c>
       <c r="E1065" t="n">
-        <v>6.918562395240848</v>
+        <v>6.858183580591998</v>
       </c>
     </row>
     <row r="1066">
@@ -27271,7 +27271,7 @@
         </is>
       </c>
       <c r="E1066" t="n">
-        <v>38.617793842842</v>
+        <v>36.5435605634488</v>
       </c>
     </row>
     <row r="1067">
@@ -27296,7 +27296,7 @@
         </is>
       </c>
       <c r="E1067" t="n">
-        <v>45.30223586132959</v>
+        <v>44.13049078880147</v>
       </c>
     </row>
     <row r="1068">
@@ -27321,7 +27321,7 @@
         </is>
       </c>
       <c r="E1068" t="n">
-        <v>6.022911863859647</v>
+        <v>6.038964217016012</v>
       </c>
     </row>
     <row r="1069">
@@ -27346,7 +27346,7 @@
         </is>
       </c>
       <c r="E1069" t="n">
-        <v>55.17090972922482</v>
+        <v>53.488635858712</v>
       </c>
     </row>
     <row r="1070">
@@ -27371,7 +27371,7 @@
         </is>
       </c>
       <c r="E1070" t="n">
-        <v>67.52079818180314</v>
+        <v>66.05245485384775</v>
       </c>
     </row>
     <row r="1071">
@@ -27396,7 +27396,7 @@
         </is>
       </c>
       <c r="E1071" t="n">
-        <v>59.13797968968711</v>
+        <v>56.68201449548276</v>
       </c>
     </row>
     <row r="1072">
@@ -27421,7 +27421,7 @@
         </is>
       </c>
       <c r="E1072" t="n">
-        <v>70.39762329868431</v>
+        <v>67.36827061891451</v>
       </c>
     </row>
     <row r="1073">
@@ -27446,7 +27446,7 @@
         </is>
       </c>
       <c r="E1073" t="n">
-        <v>79.28206681915022</v>
+        <v>76.70626983749564</v>
       </c>
     </row>
     <row r="1074">
@@ -27471,7 +27471,7 @@
         </is>
       </c>
       <c r="E1074" t="n">
-        <v>14.03639594198836</v>
+        <v>13.09227356411169</v>
       </c>
     </row>
     <row r="1075">
@@ -27496,7 +27496,7 @@
         </is>
       </c>
       <c r="E1075" t="n">
-        <v>62.23905955764445</v>
+        <v>59.58384275952777</v>
       </c>
     </row>
     <row r="1076">
@@ -27521,7 +27521,7 @@
         </is>
       </c>
       <c r="E1076" t="n">
-        <v>72.08036984759227</v>
+        <v>69.81240940092002</v>
       </c>
     </row>
   </sheetData>
